--- a/biology/Zoologie/Cribrarula_gaskoini/Cribrarula_gaskoini.xlsx
+++ b/biology/Zoologie/Cribrarula_gaskoini/Cribrarula_gaskoini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cribrarula gaskoini est une espèce de mollusques gastéropodes appartenant à la famille des Cypraeidae et au genre Cribrarula.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan Pacifique : Hawaii et Fidji.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Longueur : 10 à 27 mm.</t>
         </is>
@@ -572,9 +588,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, gaskoini, lui a été donné en l'honneur de J.S. Gaskoin[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, gaskoini, lui a été donné en l'honneur de J.S. Gaskoin.
 </t>
         </is>
       </c>
@@ -603,7 +621,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans ses publications, Reeve reprend parfois par erreur cette espèce sous le nom d'espèce de Cypraea gaskoinii alors qu'il la nomme Cypraea gaskoini lors de sa description initiale en lui donnant également le nom vernaculaire de Gaskoin's Cowrey.
 </t>
@@ -634,7 +654,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Reeve, 1846 : Conchologia iconica, or, Illustrations of the shells of molluscous animals. vol. 3 (texte intégral) (en) et (la).</t>
         </is>
